--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95782.82152160098</v>
+        <v>17528378.29953399</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95782.82152160098</v>
+        <v>17528378.29953399</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58663.55534945752</v>
+        <v>7493820.866138734</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58663.55534945752</v>
+        <v>7493820.866138734</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494626603.304691</v>
+        <v>53491167.58409679</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12271.36243941016</v>
+        <v>1267404.771277085</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23440.21094902228</v>
+        <v>2365734.232975064</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34609.05945863438</v>
+        <v>3464063.694673045</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47015.83201652662</v>
+        <v>4337992.890917365</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58442.11210053454</v>
+        <v>5455345.079508533</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69624.66545144407</v>
+        <v>6555127.254384044</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80737.61536734301</v>
+        <v>7673292.102538512</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91832.56001295774</v>
+        <v>8788789.737602234</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103955.9036049329</v>
+        <v>9687955.235545404</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115312.5390321049</v>
+        <v>10802219.24659512</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126496.3409442502</v>
+        <v>11911269.62729529</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137662.9258388309</v>
+        <v>13017667.13059101</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148829.5107334116</v>
+        <v>14124064.63388674</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160673.9145838765</v>
+        <v>15088244.03075806</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>175726.6987349072</v>
+        <v>15582294.66931109</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>24</v>
